--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -31,16 +31,52 @@
     <t>Purchase Location</t>
   </si>
   <si>
+    <t>Golf Clubs</t>
+  </si>
+  <si>
+    <t>Basement</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Austadt's</t>
+  </si>
+  <si>
+    <t>Maple</t>
+  </si>
+  <si>
+    <t>Garage</t>
+  </si>
+  <si>
+    <t>Woods</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
     <t>Samsung Laptop</t>
   </si>
   <si>
-    <t>Basement</t>
-  </si>
-  <si>
-    <t>smng-1tb</t>
+    <t>Bedroom 8</t>
   </si>
   <si>
     <t>Best Buy</t>
+  </si>
+  <si>
+    <t>Working UI Upload</t>
+  </si>
+  <si>
+    <t>Utility Room</t>
+  </si>
+  <si>
+    <t>ToysRUS</t>
+  </si>
+  <si>
+    <t>Bedroom 3</t>
   </si>
 </sst>
 </file>
@@ -91,7 +127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -140,10 +176,110 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>599</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
